--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itga4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.294352522144792</v>
+        <v>0.317263</v>
       </c>
       <c r="N2">
-        <v>0.294352522144792</v>
+        <v>0.634526</v>
       </c>
       <c r="O2">
-        <v>0.002545680356091186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P2">
-        <v>0.002545680356091186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q2">
-        <v>11.62933011173621</v>
+        <v>12.9236941867965</v>
       </c>
       <c r="R2">
-        <v>11.62933011173621</v>
+        <v>51.694776747186</v>
       </c>
       <c r="S2">
-        <v>0.0001738677928442261</v>
+        <v>0.0001440821030591349</v>
       </c>
       <c r="T2">
-        <v>0.0001738677928442261</v>
+        <v>6.632327596863939E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>42.976043056057</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N3">
-        <v>42.976043056057</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.3716743032917443</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P3">
-        <v>0.3716743032917443</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q3">
-        <v>1697.90490651625</v>
+        <v>1.1579454233615</v>
       </c>
       <c r="R3">
-        <v>1697.90490651625</v>
+        <v>6.947672540168999</v>
       </c>
       <c r="S3">
-        <v>0.02538503729096471</v>
+        <v>1.290956048743993E-05</v>
       </c>
       <c r="T3">
-        <v>0.02538503729096471</v>
+        <v>8.913712994155633E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.4144540386251</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N4">
-        <v>70.4144540386251</v>
+        <v>148.173461</v>
       </c>
       <c r="O4">
-        <v>0.6089728435988707</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P4">
-        <v>0.6089728435988707</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q4">
-        <v>2781.946370583652</v>
+        <v>2011.946446705328</v>
       </c>
       <c r="R4">
-        <v>2781.946370583652</v>
+        <v>12071.67868023197</v>
       </c>
       <c r="S4">
-        <v>0.04159232480435384</v>
+        <v>0.02243054277621479</v>
       </c>
       <c r="T4">
-        <v>0.04159232480435384</v>
+        <v>0.01548770159951117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.570626390767208</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N5">
-        <v>0.570626390767208</v>
+        <v>212.597199</v>
       </c>
       <c r="O5">
-        <v>0.004935009162003186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P5">
-        <v>0.004935009162003186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q5">
-        <v>22.54440566823543</v>
+        <v>2886.712480229882</v>
       </c>
       <c r="R5">
-        <v>22.54440566823543</v>
+        <v>17320.27488137929</v>
       </c>
       <c r="S5">
-        <v>0.0003370569084254633</v>
+        <v>0.03218302747394792</v>
       </c>
       <c r="T5">
-        <v>0.0003370569084254633</v>
+        <v>0.02222153654765406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.3727573016189</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N6">
-        <v>1.3727573016189</v>
+        <v>1.841336</v>
       </c>
       <c r="O6">
-        <v>0.01187216359129066</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P6">
-        <v>0.01187216359129066</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q6">
-        <v>54.23513176479461</v>
+        <v>25.002246673516</v>
       </c>
       <c r="R6">
-        <v>54.23513176479461</v>
+        <v>150.013480041096</v>
       </c>
       <c r="S6">
-        <v>0.0008108586276215694</v>
+        <v>0.0002787419935705237</v>
       </c>
       <c r="T6">
-        <v>0.0008108586276215694</v>
+        <v>0.0001924640372167422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>330.770233336439</v>
+        <v>40.7349555</v>
       </c>
       <c r="H7">
-        <v>330.770233336439</v>
+        <v>81.469911</v>
       </c>
       <c r="I7">
-        <v>0.5718139577408378</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J7">
-        <v>0.5718139577408378</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.294352522144792</v>
+        <v>1.3859455</v>
       </c>
       <c r="N7">
-        <v>0.294352522144792</v>
+        <v>2.771891</v>
       </c>
       <c r="O7">
-        <v>0.002545680356091186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P7">
-        <v>0.002545680356091186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q7">
-        <v>97.36305243300218</v>
+        <v>56.45642826792525</v>
       </c>
       <c r="R7">
-        <v>97.36305243300218</v>
+        <v>225.825713071701</v>
       </c>
       <c r="S7">
-        <v>0.001455655559559606</v>
+        <v>0.0006294145310526101</v>
       </c>
       <c r="T7">
-        <v>0.001455655559559606</v>
+        <v>0.0002897294858650202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.976043056057</v>
+        <v>0.317263</v>
       </c>
       <c r="N8">
-        <v>42.976043056057</v>
+        <v>0.634526</v>
       </c>
       <c r="O8">
-        <v>0.3716743032917443</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P8">
-        <v>0.3716743032917443</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q8">
-        <v>14215.19578952882</v>
+        <v>111.1663874847867</v>
       </c>
       <c r="R8">
-        <v>14215.19578952882</v>
+        <v>666.9983249087201</v>
       </c>
       <c r="S8">
-        <v>0.2125285543558208</v>
+        <v>0.001239358241288209</v>
       </c>
       <c r="T8">
-        <v>0.2125285543558208</v>
+        <v>0.0008557443663967327</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>70.4144540386251</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N9">
-        <v>70.4144540386251</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.6089728435988707</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P9">
-        <v>0.6089728435988707</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q9">
-        <v>23291.00539261398</v>
+        <v>9.960357136208888</v>
       </c>
       <c r="R9">
-        <v>23291.00539261398</v>
+        <v>89.64321422587999</v>
       </c>
       <c r="S9">
-        <v>0.3482191718549625</v>
+        <v>0.0001110448129352379</v>
       </c>
       <c r="T9">
-        <v>0.3482191718549625</v>
+        <v>0.0001150102971697723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.570626390767208</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N10">
-        <v>0.570626390767208</v>
+        <v>148.173461</v>
       </c>
       <c r="O10">
-        <v>0.004935009162003186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P10">
-        <v>0.004935009162003186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q10">
-        <v>188.7462244219994</v>
+        <v>17306.26050572966</v>
       </c>
       <c r="R10">
-        <v>188.7462244219994</v>
+        <v>155756.3445515669</v>
       </c>
       <c r="S10">
-        <v>0.002821907120412337</v>
+        <v>0.1929419230843674</v>
       </c>
       <c r="T10">
-        <v>0.002821907120412337</v>
+        <v>0.1998320076722718</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3727573016189</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N11">
-        <v>1.3727573016189</v>
+        <v>212.597199</v>
       </c>
       <c r="O11">
-        <v>0.01187216359129066</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P11">
-        <v>0.01187216359129066</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q11">
-        <v>454.067252970784</v>
+        <v>24830.77930320092</v>
       </c>
       <c r="R11">
-        <v>454.067252970784</v>
+        <v>223477.0137288083</v>
       </c>
       <c r="S11">
-        <v>0.006788668850082588</v>
+        <v>0.2768303590979086</v>
       </c>
       <c r="T11">
-        <v>0.006788668850082588</v>
+        <v>0.2867161556121815</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.704849261112</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H12">
-        <v>124.704849261112</v>
+        <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.2155815917478311</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J12">
-        <v>0.2155815917478311</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.294352522144792</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N12">
-        <v>0.294352522144792</v>
+        <v>1.841336</v>
       </c>
       <c r="O12">
-        <v>0.002545680356091186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P12">
-        <v>0.002545680356091186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q12">
-        <v>36.70718690369442</v>
+        <v>215.0630772846578</v>
       </c>
       <c r="R12">
-        <v>36.70718690369442</v>
+        <v>1935.56769556192</v>
       </c>
       <c r="S12">
-        <v>0.0005488018232473234</v>
+        <v>0.002397668965054928</v>
       </c>
       <c r="T12">
-        <v>0.0005488018232473234</v>
+        <v>0.002483291320833967</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.704849261112</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H13">
-        <v>124.704849261112</v>
+        <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.2155815917478311</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J13">
-        <v>0.2155815917478311</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.976043056057</v>
+        <v>1.3859455</v>
       </c>
       <c r="N13">
-        <v>42.976043056057</v>
+        <v>2.771891</v>
       </c>
       <c r="O13">
-        <v>0.3716743032917443</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P13">
-        <v>0.3716743032917443</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q13">
-        <v>5359.320971144648</v>
+        <v>485.6240862810867</v>
       </c>
       <c r="R13">
-        <v>5359.320971144648</v>
+        <v>2913.74451768652</v>
       </c>
       <c r="S13">
-        <v>0.08012613791540041</v>
+        <v>0.005414066491842121</v>
       </c>
       <c r="T13">
-        <v>0.08012613791540041</v>
+        <v>0.003738270941641171</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H14">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I14">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J14">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>70.4144540386251</v>
+        <v>0.317263</v>
       </c>
       <c r="N14">
-        <v>70.4144540386251</v>
+        <v>0.634526</v>
       </c>
       <c r="O14">
-        <v>0.6089728435988707</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P14">
-        <v>0.6089728435988707</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q14">
-        <v>8781.023876690242</v>
+        <v>77.35782590564334</v>
       </c>
       <c r="R14">
-        <v>8781.023876690242</v>
+        <v>464.1469554338601</v>
       </c>
       <c r="S14">
-        <v>0.1312833349542476</v>
+        <v>0.0008624374798310155</v>
       </c>
       <c r="T14">
-        <v>0.1312833349542476</v>
+        <v>0.000595490464458179</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H15">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I15">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J15">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.570626390767208</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N15">
-        <v>0.570626390767208</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.004935009162003186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P15">
-        <v>0.004935009162003186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q15">
-        <v>71.15987804503706</v>
+        <v>6.931155997187778</v>
       </c>
       <c r="R15">
-        <v>71.15987804503706</v>
+        <v>62.38040397469</v>
       </c>
       <c r="S15">
-        <v>0.001063897130434777</v>
+        <v>7.727322530782469E-05</v>
       </c>
       <c r="T15">
-        <v>0.001063897130434777</v>
+        <v>8.003270365363916E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H16">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I16">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J16">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.3727573016189</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N16">
-        <v>1.3727573016189</v>
+        <v>148.173461</v>
       </c>
       <c r="O16">
-        <v>0.01187216359129066</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P16">
-        <v>0.01187216359129066</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q16">
-        <v>171.1894923704758</v>
+        <v>12042.98095468074</v>
       </c>
       <c r="R16">
-        <v>171.1894923704758</v>
+        <v>108386.8285921267</v>
       </c>
       <c r="S16">
-        <v>0.002559419924501087</v>
+        <v>0.1342633149602267</v>
       </c>
       <c r="T16">
-        <v>0.002559419924501087</v>
+        <v>0.1390579473674299</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H17">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I17">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J17">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.294352522144792</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N17">
-        <v>0.294352522144792</v>
+        <v>212.597199</v>
       </c>
       <c r="O17">
-        <v>0.002545680356091186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P17">
-        <v>0.002545680356091186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q17">
-        <v>11.58561294871856</v>
+        <v>17279.09978815621</v>
       </c>
       <c r="R17">
-        <v>11.58561294871856</v>
+        <v>155511.8980934059</v>
       </c>
       <c r="S17">
-        <v>0.0001732141862675567</v>
+        <v>0.1926391169940952</v>
       </c>
       <c r="T17">
-        <v>0.0001732141862675567</v>
+        <v>0.1995183881748233</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H18">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I18">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J18">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.976043056057</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N18">
-        <v>42.976043056057</v>
+        <v>1.841336</v>
       </c>
       <c r="O18">
-        <v>0.3716743032917443</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P18">
-        <v>0.3716743032917443</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q18">
-        <v>1691.522115343117</v>
+        <v>149.6568564269956</v>
       </c>
       <c r="R18">
-        <v>1691.522115343117</v>
+        <v>1346.91170784296</v>
       </c>
       <c r="S18">
-        <v>0.02528960945438294</v>
+        <v>0.001668476079637528</v>
       </c>
       <c r="T18">
-        <v>0.02528960945438294</v>
+        <v>0.001728058471778249</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H19">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I19">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J19">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.4144540386251</v>
+        <v>1.3859455</v>
       </c>
       <c r="N19">
-        <v>70.4144540386251</v>
+        <v>2.771891</v>
       </c>
       <c r="O19">
-        <v>0.6089728435988707</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P19">
-        <v>0.6089728435988707</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q19">
-        <v>2771.488433469421</v>
+        <v>337.9332941556684</v>
       </c>
       <c r="R19">
-        <v>2771.488433469421</v>
+        <v>2027.59976493401</v>
       </c>
       <c r="S19">
-        <v>0.04143597027436075</v>
+        <v>0.003767509429725926</v>
       </c>
       <c r="T19">
-        <v>0.04143597027436075</v>
+        <v>0.002601366467280216</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H20">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I20">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J20">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.570626390767208</v>
+        <v>0.317263</v>
       </c>
       <c r="N20">
-        <v>0.570626390767208</v>
+        <v>0.634526</v>
       </c>
       <c r="O20">
-        <v>0.004935009162003186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P20">
-        <v>0.004935009162003186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q20">
-        <v>22.45965637930264</v>
+        <v>15.462540106322</v>
       </c>
       <c r="R20">
-        <v>22.45965637930264</v>
+        <v>92.775240637932</v>
       </c>
       <c r="S20">
-        <v>0.0003357898387258088</v>
+        <v>0.0001723868783146543</v>
       </c>
       <c r="T20">
-        <v>0.0003357898387258088</v>
+        <v>0.0001190286190416992</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H21">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I21">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J21">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.3727573016189</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N21">
-        <v>1.3727573016189</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.01187216359129066</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P21">
-        <v>0.01187216359129066</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q21">
-        <v>54.03125019346898</v>
+        <v>1.385422565008666</v>
       </c>
       <c r="R21">
-        <v>54.03125019346898</v>
+        <v>12.468803085078</v>
       </c>
       <c r="S21">
-        <v>0.0008078104349511914</v>
+        <v>1.544562985682268E-05</v>
       </c>
       <c r="T21">
-        <v>0.0008078104349511914</v>
+        <v>1.599720358701939E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H22">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I22">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J22">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.294352522144792</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N22">
-        <v>0.294352522144792</v>
+        <v>148.173461</v>
       </c>
       <c r="O22">
-        <v>0.002545680356091186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P22">
-        <v>0.002545680356091186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q22">
-        <v>6.593882549629109</v>
+        <v>2407.191177251511</v>
       </c>
       <c r="R22">
-        <v>6.593882549629109</v>
+        <v>21664.7205952636</v>
       </c>
       <c r="S22">
-        <v>9.858382160990263E-05</v>
+        <v>0.02683699894710715</v>
       </c>
       <c r="T22">
-        <v>9.858382160990263E-05</v>
+        <v>0.02779536605506956</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H23">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I23">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J23">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>42.976043056057</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N23">
-        <v>42.976043056057</v>
+        <v>212.597199</v>
       </c>
       <c r="O23">
-        <v>0.3716743032917443</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P23">
-        <v>0.3716743032917443</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q23">
-        <v>962.7197290330993</v>
+        <v>3453.804063746502</v>
       </c>
       <c r="R23">
-        <v>962.7197290330993</v>
+        <v>31084.23657371852</v>
       </c>
       <c r="S23">
-        <v>0.01439343047332125</v>
+        <v>0.03850534884732787</v>
       </c>
       <c r="T23">
-        <v>0.01439343047332125</v>
+        <v>0.0398804005022699</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H24">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I24">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J24">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>70.4144540386251</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N24">
-        <v>70.4144540386251</v>
+        <v>1.841336</v>
       </c>
       <c r="O24">
-        <v>0.6089728435988707</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P24">
-        <v>0.6089728435988707</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q24">
-        <v>1577.376121474371</v>
+        <v>29.91391132826134</v>
       </c>
       <c r="R24">
-        <v>1577.376121474371</v>
+        <v>269.225201954352</v>
       </c>
       <c r="S24">
-        <v>0.02358303548793058</v>
+        <v>0.0003335005604901845</v>
       </c>
       <c r="T24">
-        <v>0.02358303548793058</v>
+        <v>0.0003454100876430063</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H25">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I25">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J25">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.570626390767208</v>
+        <v>1.3859455</v>
       </c>
       <c r="N25">
-        <v>0.570626390767208</v>
+        <v>2.771891</v>
       </c>
       <c r="O25">
-        <v>0.004935009162003186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P25">
-        <v>0.004935009162003186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q25">
-        <v>12.78277954957318</v>
+        <v>67.54723330147701</v>
       </c>
       <c r="R25">
-        <v>12.78277954957318</v>
+        <v>405.283399808862</v>
       </c>
       <c r="S25">
-        <v>0.0001911127851169742</v>
+        <v>0.0007530623434161647</v>
       </c>
       <c r="T25">
-        <v>0.0001911127851169742</v>
+        <v>0.0005199698008657085</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H26">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I26">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J26">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.3727573016189</v>
+        <v>0.317263</v>
       </c>
       <c r="N26">
-        <v>1.3727573016189</v>
+        <v>0.634526</v>
       </c>
       <c r="O26">
-        <v>0.01187216359129066</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P26">
-        <v>0.01187216359129066</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q26">
-        <v>30.75156397528073</v>
+        <v>7.243773245251</v>
       </c>
       <c r="R26">
-        <v>30.75156397528073</v>
+        <v>43.462639471506</v>
       </c>
       <c r="S26">
-        <v>0.0004597604938133306</v>
+        <v>8.075849429535042E-05</v>
       </c>
       <c r="T26">
-        <v>0.0004597604938133306</v>
+        <v>5.576162261211593E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>21.7135627023294</v>
+        <v>22.832077</v>
       </c>
       <c r="H27">
-        <v>21.7135627023294</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I27">
-        <v>0.037536987836641</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J27">
-        <v>0.037536987836641</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.294352522144792</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N27">
-        <v>0.294352522144792</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.002545680356091186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P27">
-        <v>0.002545680356091186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q27">
-        <v>6.391441946179745</v>
+        <v>0.6490322314943332</v>
       </c>
       <c r="R27">
-        <v>6.391441946179745</v>
+        <v>5.841290083448999</v>
       </c>
       <c r="S27">
-        <v>9.555717256257078E-05</v>
+        <v>7.235851260114571E-06</v>
       </c>
       <c r="T27">
-        <v>9.555717256257078E-05</v>
+        <v>7.494248328261779E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>21.7135627023294</v>
+        <v>22.832077</v>
       </c>
       <c r="H28">
-        <v>21.7135627023294</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I28">
-        <v>0.037536987836641</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J28">
-        <v>0.037536987836641</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>42.976043056057</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N28">
-        <v>42.976043056057</v>
+        <v>148.173461</v>
       </c>
       <c r="O28">
-        <v>0.3716743032917443</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P28">
-        <v>0.3716743032917443</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q28">
-        <v>933.1630055957017</v>
+        <v>1127.702623636166</v>
       </c>
       <c r="R28">
-        <v>933.1630055957017</v>
+        <v>10149.32361272549</v>
       </c>
       <c r="S28">
-        <v>0.01395153380185423</v>
+        <v>0.01257239325616374</v>
       </c>
       <c r="T28">
-        <v>0.01395153380185423</v>
+        <v>0.01302136179354837</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>21.7135627023294</v>
+        <v>22.832077</v>
       </c>
       <c r="H29">
-        <v>21.7135627023294</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I29">
-        <v>0.037536987836641</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J29">
-        <v>0.037536987836641</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>70.4144540386251</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N29">
-        <v>70.4144540386251</v>
+        <v>212.597199</v>
       </c>
       <c r="O29">
-        <v>0.6089728435988707</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P29">
-        <v>0.6089728435988707</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q29">
-        <v>1528.948662917978</v>
+        <v>1618.011872517441</v>
       </c>
       <c r="R29">
-        <v>1528.948662917978</v>
+        <v>14562.10685265697</v>
       </c>
       <c r="S29">
-        <v>0.02285900622301549</v>
+        <v>0.01803869311648798</v>
       </c>
       <c r="T29">
-        <v>0.02285900622301549</v>
+        <v>0.0186828668628723</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>21.7135627023294</v>
+        <v>22.832077</v>
       </c>
       <c r="H30">
-        <v>21.7135627023294</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I30">
-        <v>0.037536987836641</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J30">
-        <v>0.037536987836641</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.570626390767208</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N30">
-        <v>0.570626390767208</v>
+        <v>1.841336</v>
       </c>
       <c r="O30">
-        <v>0.004935009162003186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P30">
-        <v>0.004935009162003186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q30">
-        <v>12.39033191552769</v>
+        <v>14.01384177829067</v>
       </c>
       <c r="R30">
-        <v>12.39033191552769</v>
+        <v>126.124576004616</v>
       </c>
       <c r="S30">
-        <v>0.0001852453788878255</v>
+        <v>0.0001562358073604794</v>
       </c>
       <c r="T30">
-        <v>0.0001852453788878255</v>
+        <v>0.0001618150921067113</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>21.7135627023294</v>
+        <v>22.832077</v>
       </c>
       <c r="H31">
-        <v>21.7135627023294</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I31">
-        <v>0.037536987836641</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J31">
-        <v>0.037536987836641</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.3727573016189</v>
+        <v>1.3859455</v>
       </c>
       <c r="N31">
-        <v>1.3727573016189</v>
+        <v>2.771891</v>
       </c>
       <c r="O31">
-        <v>0.01187216359129066</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P31">
-        <v>0.01187216359129066</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q31">
-        <v>29.8074517437825</v>
+        <v>31.6440143738035</v>
       </c>
       <c r="R31">
-        <v>29.8074517437825</v>
+        <v>189.864086242821</v>
       </c>
       <c r="S31">
-        <v>0.0004456452603208895</v>
+        <v>0.0003527889219840214</v>
       </c>
       <c r="T31">
-        <v>0.0004456452603208895</v>
+        <v>0.0002435914995822403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>25.082339</v>
+      </c>
+      <c r="H32">
+        <v>50.164678</v>
+      </c>
+      <c r="I32">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J32">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.317263</v>
+      </c>
+      <c r="N32">
+        <v>0.634526</v>
+      </c>
+      <c r="O32">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P32">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q32">
+        <v>7.957698118157</v>
+      </c>
+      <c r="R32">
+        <v>31.830792472628</v>
+      </c>
+      <c r="S32">
+        <v>8.871781270909106E-05</v>
+      </c>
+      <c r="T32">
+        <v>4.083821550844622E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>25.082339</v>
+      </c>
+      <c r="H33">
+        <v>50.164678</v>
+      </c>
+      <c r="I33">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J33">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P33">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q33">
+        <v>0.7129989291936667</v>
+      </c>
+      <c r="R33">
+        <v>4.277993575162</v>
+      </c>
+      <c r="S33">
+        <v>7.948995365588986E-06</v>
+      </c>
+      <c r="T33">
+        <v>5.488572856501994E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>25.082339</v>
+      </c>
+      <c r="H34">
+        <v>50.164678</v>
+      </c>
+      <c r="I34">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J34">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N34">
+        <v>148.173461</v>
+      </c>
+      <c r="O34">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P34">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q34">
+        <v>1238.845659868426</v>
+      </c>
+      <c r="R34">
+        <v>7433.073959210557</v>
+      </c>
+      <c r="S34">
+        <v>0.01381149116186025</v>
+      </c>
+      <c r="T34">
+        <v>0.009536472473862929</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>25.082339</v>
+      </c>
+      <c r="H35">
+        <v>50.164678</v>
+      </c>
+      <c r="I35">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J35">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N35">
+        <v>212.597199</v>
+      </c>
+      <c r="O35">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P35">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q35">
+        <v>1777.478338589487</v>
+      </c>
+      <c r="R35">
+        <v>10664.87003153692</v>
+      </c>
+      <c r="S35">
+        <v>0.01981653337384585</v>
+      </c>
+      <c r="T35">
+        <v>0.01368279665333497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>25.082339</v>
+      </c>
+      <c r="H36">
+        <v>50.164678</v>
+      </c>
+      <c r="I36">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J36">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.841336</v>
+      </c>
+      <c r="O36">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P36">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q36">
+        <v>15.39500458830133</v>
+      </c>
+      <c r="R36">
+        <v>92.37002752980801</v>
+      </c>
+      <c r="S36">
+        <v>0.0001716339465811298</v>
+      </c>
+      <c r="T36">
+        <v>0.0001185087394235387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>25.082339</v>
+      </c>
+      <c r="H37">
+        <v>50.164678</v>
+      </c>
+      <c r="I37">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J37">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.3859455</v>
+      </c>
+      <c r="N37">
+        <v>2.771891</v>
+      </c>
+      <c r="O37">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P37">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q37">
+        <v>34.7627548665245</v>
+      </c>
+      <c r="R37">
+        <v>139.051019466098</v>
+      </c>
+      <c r="S37">
+        <v>0.0003875587550203067</v>
+      </c>
+      <c r="T37">
+        <v>0.0001783994383585897</v>
       </c>
     </row>
   </sheetData>
